--- a/PricerAndQutation/OptionPricer_v2_20180302.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180302.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -1652,14 +1652,17 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1670,31 +1673,28 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1729,27 +1729,27 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>2161</v>
+        <v>2202</v>
         <stp/>
         <stp>cs1805</stp>
         <stp>LastPrice</stp>
         <tr r="P13" s="1"/>
       </tp>
-      <tp>
-        <v>52540</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>cu1805</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="1"/>
       </tp>
-      <tp>
-        <v>4024</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2046,7 +2046,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
@@ -6732,75 +6732,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="181"/>
+      <c r="C1" s="184"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="G3" s="186" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="G3" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="L3" s="182" t="s">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="L3" s="183" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="Q3" s="186" t="s">
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="Q3" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="G4" s="183" t="s">
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="G4" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="L4" s="183" t="s">
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="L4" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="Q4" s="183" t="s">
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="Q4" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="183"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="185"/>
-      <c r="G5" s="180" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="186"/>
+      <c r="G5" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="180"/>
+      <c r="H5" s="179"/>
       <c r="I5" s="158"/>
       <c r="J5" s="159"/>
       <c r="L5" s="156" t="s">
@@ -6809,360 +6809,360 @@
       <c r="M5" s="157"/>
       <c r="N5" s="158"/>
       <c r="O5" s="159"/>
-      <c r="Q5" s="180" t="s">
+      <c r="Q5" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="180"/>
+      <c r="R5" s="179"/>
       <c r="S5" s="158"/>
       <c r="T5" s="159"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="178" t="s">
+      <c r="C6" s="179"/>
+      <c r="D6" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="G6" s="180" t="s">
+      <c r="E6" s="181"/>
+      <c r="G6" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="180"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
-      <c r="L6" s="180" t="s">
+      <c r="H6" s="179"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="181"/>
+      <c r="L6" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="180"/>
-      <c r="N6" s="178" t="s">
+      <c r="M6" s="179"/>
+      <c r="N6" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="179"/>
-      <c r="Q6" s="180" t="s">
+      <c r="O6" s="181"/>
+      <c r="Q6" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="180"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="181"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="178" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="G7" s="180" t="s">
+      <c r="E7" s="181"/>
+      <c r="G7" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="180"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
-      <c r="L7" s="180" t="s">
+      <c r="H7" s="179"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="181"/>
+      <c r="L7" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="178" t="s">
+      <c r="M7" s="179"/>
+      <c r="N7" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="179"/>
-      <c r="Q7" s="180" t="s">
+      <c r="O7" s="181"/>
+      <c r="Q7" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="180"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="181"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="178">
+      <c r="C8" s="179"/>
+      <c r="D8" s="180">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="179"/>
-      <c r="G8" s="180" t="s">
+      <c r="E8" s="181"/>
+      <c r="G8" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
-      <c r="L8" s="180" t="s">
+      <c r="H8" s="179"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="181"/>
+      <c r="L8" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="180"/>
-      <c r="N8" s="178">
+      <c r="M8" s="179"/>
+      <c r="N8" s="180">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="179"/>
-      <c r="Q8" s="180" t="s">
+      <c r="O8" s="181"/>
+      <c r="Q8" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="180"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="179"/>
+      <c r="R8" s="179"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="181"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="178" t="s">
+      <c r="C9" s="179"/>
+      <c r="D9" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="179"/>
-      <c r="G9" s="180" t="s">
+      <c r="E9" s="181"/>
+      <c r="G9" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="180"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
-      <c r="L9" s="180" t="s">
+      <c r="H9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="181"/>
+      <c r="L9" s="179" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="180"/>
-      <c r="N9" s="178" t="s">
+      <c r="M9" s="179"/>
+      <c r="N9" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="179"/>
-      <c r="Q9" s="180" t="s">
+      <c r="O9" s="181"/>
+      <c r="Q9" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="180"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="181"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="180"/>
-      <c r="D10" s="178">
+      <c r="C10" s="179"/>
+      <c r="D10" s="180">
         <v>43084</v>
       </c>
-      <c r="E10" s="179"/>
+      <c r="E10" s="181"/>
       <c r="G10" s="160" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="160"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="179"/>
-      <c r="L10" s="180" t="s">
+      <c r="I10" s="180"/>
+      <c r="J10" s="181"/>
+      <c r="L10" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="180"/>
-      <c r="N10" s="178">
+      <c r="M10" s="179"/>
+      <c r="N10" s="180">
         <v>43084</v>
       </c>
-      <c r="O10" s="179"/>
+      <c r="O10" s="181"/>
       <c r="Q10" s="160" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="160"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="179"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="181"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="180"/>
-      <c r="D11" s="178">
+      <c r="C11" s="179"/>
+      <c r="D11" s="180">
         <v>3935</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="G11" s="180" t="s">
+      <c r="E11" s="181"/>
+      <c r="G11" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="180"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
-      <c r="L11" s="180" t="s">
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
+      <c r="L11" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="180"/>
-      <c r="N11" s="178">
+      <c r="M11" s="179"/>
+      <c r="N11" s="180">
         <v>3935</v>
       </c>
-      <c r="O11" s="179"/>
-      <c r="Q11" s="180" t="s">
+      <c r="O11" s="181"/>
+      <c r="Q11" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="180"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="179"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="181"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="178">
+      <c r="C12" s="179"/>
+      <c r="D12" s="180">
         <v>3800</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="G12" s="180" t="s">
+      <c r="E12" s="181"/>
+      <c r="G12" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="180"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
-      <c r="L12" s="180" t="s">
+      <c r="H12" s="179"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="181"/>
+      <c r="L12" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="180"/>
-      <c r="N12" s="178">
+      <c r="M12" s="179"/>
+      <c r="N12" s="180">
         <v>3800</v>
       </c>
-      <c r="O12" s="179"/>
-      <c r="Q12" s="180" t="s">
+      <c r="O12" s="181"/>
+      <c r="Q12" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="180"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="179"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="180"/>
+      <c r="T12" s="181"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="179" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="178">
+      <c r="C13" s="179"/>
+      <c r="D13" s="180">
         <v>61</v>
       </c>
-      <c r="E13" s="179"/>
-      <c r="G13" s="180" t="s">
+      <c r="E13" s="181"/>
+      <c r="G13" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="180"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
-      <c r="L13" s="180" t="s">
+      <c r="H13" s="179"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="181"/>
+      <c r="L13" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="180"/>
-      <c r="N13" s="178">
+      <c r="M13" s="179"/>
+      <c r="N13" s="180">
         <v>3800</v>
       </c>
-      <c r="O13" s="179"/>
-      <c r="Q13" s="180" t="s">
+      <c r="O13" s="181"/>
+      <c r="Q13" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="180"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="179"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="180"/>
+      <c r="T13" s="181"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="180"/>
-      <c r="D14" s="178" t="s">
+      <c r="C14" s="179"/>
+      <c r="D14" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="G14" s="180" t="s">
+      <c r="E14" s="181"/>
+      <c r="G14" s="179" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="180"/>
+      <c r="H14" s="179"/>
       <c r="I14" s="161"/>
       <c r="J14" s="162"/>
-      <c r="L14" s="180" t="s">
+      <c r="L14" s="179" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="180"/>
-      <c r="N14" s="178">
+      <c r="M14" s="179"/>
+      <c r="N14" s="180">
         <v>61</v>
       </c>
-      <c r="O14" s="179"/>
-      <c r="Q14" s="180" t="s">
+      <c r="O14" s="181"/>
+      <c r="Q14" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="180"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="179"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="180"/>
+      <c r="T14" s="181"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="178">
+      <c r="C15" s="179"/>
+      <c r="D15" s="180">
         <v>5000</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="G15" s="180" t="s">
+      <c r="E15" s="181"/>
+      <c r="G15" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="180"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
-      <c r="L15" s="180" t="s">
+      <c r="H15" s="179"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="181"/>
+      <c r="L15" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="180"/>
-      <c r="N15" s="178" t="s">
+      <c r="M15" s="179"/>
+      <c r="N15" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="179"/>
-      <c r="Q15" s="180" t="s">
+      <c r="O15" s="181"/>
+      <c r="Q15" s="179" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="180"/>
+      <c r="R15" s="179"/>
       <c r="S15" s="161"/>
       <c r="T15" s="162"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="177"/>
-      <c r="G16" s="175" t="s">
+      <c r="E16" s="178"/>
+      <c r="G16" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="175"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="177"/>
-      <c r="L16" s="180" t="s">
+      <c r="H16" s="176"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
+      <c r="L16" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="180"/>
-      <c r="N16" s="178">
+      <c r="M16" s="179"/>
+      <c r="N16" s="180">
         <v>5000</v>
       </c>
-      <c r="O16" s="179"/>
-      <c r="Q16" s="180" t="s">
+      <c r="O16" s="181"/>
+      <c r="Q16" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="180"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="179"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="180"/>
+      <c r="T16" s="181"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="175" t="s">
+      <c r="L17" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176" t="s">
+      <c r="M17" s="176"/>
+      <c r="N17" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="177"/>
-      <c r="Q17" s="175" t="s">
+      <c r="O17" s="178"/>
+      <c r="Q17" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="175"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="177"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="178"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="163" t="s">
@@ -7192,81 +7192,81 @@
       <c r="Y21" s="164"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="175" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="G22" s="173" t="s">
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="G22" s="175" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="L22" s="183" t="s">
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="L22" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="Q22" s="173" t="s">
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="Q22" s="175" t="s">
         <v>195</v>
       </c>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="V22" s="183" t="s">
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="V22" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="183"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
+      <c r="Y22" s="172"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="166" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="166"/>
-      <c r="D23" s="172">
+      <c r="D23" s="173">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="E23" s="174"/>
       <c r="G23" s="166" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="166"/>
-      <c r="I23" s="172">
+      <c r="I23" s="173">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="J23" s="174"/>
       <c r="L23" s="166" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="166"/>
-      <c r="N23" s="172">
+      <c r="N23" s="173">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="O23" s="174"/>
       <c r="Q23" s="166" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="166"/>
-      <c r="S23" s="172">
+      <c r="S23" s="173">
         <f ca="1">TODAY()-1</f>
-        <v>43160</v>
+        <v>43163</v>
       </c>
       <c r="T23" s="174"/>
       <c r="V23" s="166" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="166"/>
-      <c r="X23" s="172">
+      <c r="X23" s="173">
         <f ca="1">TODAY()-1</f>
-        <v>43160</v>
+        <v>43163</v>
       </c>
       <c r="Y23" s="174"/>
     </row>
@@ -7448,7 +7448,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="166"/>
-      <c r="D28" s="172">
+      <c r="D28" s="173">
         <v>43182</v>
       </c>
       <c r="E28" s="168"/>
@@ -7456,7 +7456,7 @@
         <v>134</v>
       </c>
       <c r="H28" s="166"/>
-      <c r="I28" s="172">
+      <c r="I28" s="173">
         <v>43182</v>
       </c>
       <c r="J28" s="168"/>
@@ -7464,7 +7464,7 @@
         <v>134</v>
       </c>
       <c r="M28" s="166"/>
-      <c r="N28" s="172">
+      <c r="N28" s="173">
         <v>43219</v>
       </c>
       <c r="O28" s="168"/>
@@ -7472,7 +7472,7 @@
         <v>134</v>
       </c>
       <c r="R28" s="166"/>
-      <c r="S28" s="172">
+      <c r="S28" s="173">
         <v>43201</v>
       </c>
       <c r="T28" s="168"/>
@@ -7480,7 +7480,7 @@
         <v>134</v>
       </c>
       <c r="W28" s="166"/>
-      <c r="X28" s="172">
+      <c r="X28" s="173">
         <v>43201</v>
       </c>
       <c r="Y28" s="168"/>
@@ -7739,21 +7739,21 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B37" s="166" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="166"/>
-      <c r="D37" s="172">
+      <c r="D37" s="173">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="E37" s="174"/>
     </row>
@@ -7803,7 +7803,7 @@
         <v>134</v>
       </c>
       <c r="C42" s="166"/>
-      <c r="D42" s="172">
+      <c r="D42" s="173">
         <v>43189</v>
       </c>
       <c r="E42" s="168"/>
@@ -7871,104 +7871,135 @@
     <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -7993,135 +8024,104 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8134,8 +8134,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8298,11 +8298,11 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" ref="E8:E13" ca="1" si="0">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F11" ca="1" si="1">E8+H8</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -8320,22 +8320,22 @@
       <c r="K8" s="23">
         <v>0.3</v>
       </c>
-      <c r="L8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-274.40943743717298</v>
+      <c r="L8" s="24" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
+        <v>#NAME?</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
         <v>0</v>
       </c>
-      <c r="O8" s="24">
-        <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>274.40943743717298</v>
+      <c r="O8" s="24" t="e">
+        <f t="shared" ref="O8:O9" ca="1" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>4024</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -8347,17 +8347,17 @@
       <c r="S8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="26">
-        <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>6.8193200158343181E-2</v>
-      </c>
-      <c r="U8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.75956937287173787</v>
-      </c>
-      <c r="V8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.573054258630691</v>
+      <c r="T8" s="26" t="e">
+        <f t="shared" ref="T8:T9" ca="1" si="6">O8/P8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U8" s="24" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V8" s="24" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -8373,11 +8373,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43193</v>
+        <v>43196</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -8395,18 +8395,18 @@
       <c r="K9" s="9">
         <v>0.17</v>
       </c>
-      <c r="L9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>1.0209659960206068</v>
+      <c r="L9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0209659960206068</v>
+      <c r="O9" s="13" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#NAME?</v>
       </c>
       <c r="P9" s="11">
         <v>100</v>
@@ -8421,17 +8421,17 @@
       <c r="S9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T9" s="14">
-        <f t="shared" si="6"/>
-        <v>1.0209659960206069E-2</v>
-      </c>
-      <c r="U9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>0.32026444001047594</v>
-      </c>
-      <c r="V9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>0.10577397020897372</v>
+      <c r="T9" s="14" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="U9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -8468,18 +8468,18 @@
       <c r="K10" s="9">
         <v>0.25</v>
       </c>
-      <c r="L10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>4.6461909092771876</v>
+      <c r="L10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>#NAME?</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="13">
         <f t="shared" ref="N10" si="7">M10/10000*I10*P10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="13">
-        <f t="shared" ref="O10" si="8">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
-        <v>4.6461909092771876</v>
+      <c r="O10" s="13" t="e">
+        <f t="shared" ref="O10" ca="1" si="8">IF(L10&lt;=0,ABS(L10)+N10,L10-N10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P10" s="11">
         <v>100</v>
@@ -8494,17 +8494,17 @@
       <c r="S10" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T10" s="14">
-        <f t="shared" ref="T10" si="10">O10/P10</f>
-        <v>4.6461909092771876E-2</v>
-      </c>
-      <c r="U10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>0.52104396214645021</v>
-      </c>
-      <c r="V10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
-        <v>0.18563540944411017</v>
+      <c r="T10" s="14" t="e">
+        <f t="shared" ref="T10" ca="1" si="10">O10/P10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q10,$P10,$G10,$I10,$C$3,$J10,$K10,$C$4)*R10</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8520,11 +8520,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43221</v>
+        <v>43224</v>
       </c>
       <c r="G11" s="10">
         <v>50000</v>
@@ -8542,24 +8542,24 @@
       <c r="K11" s="9">
         <v>0.14499999999999999</v>
       </c>
-      <c r="L11" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>334.44412078043206</v>
+      <c r="L11" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>#NAME?</v>
       </c>
       <c r="M11" s="15">
         <v>30</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" ref="N11" si="11">M11/10000*I11*P11</f>
-        <v>25.910136986301371</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" ref="O11" si="12">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>308.53398379413068</v>
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="e">
+        <f t="shared" ref="O11" ca="1" si="12">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P11" s="11">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>52540</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>85</v>
@@ -8571,17 +8571,17 @@
       <c r="S11" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T11" s="14">
-        <f t="shared" ref="T11" si="14">O11/P11</f>
-        <v>5.8723636047607669E-3</v>
-      </c>
-      <c r="U11" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.19090259984295699</v>
-      </c>
-      <c r="V11" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>57.825976763839208</v>
+      <c r="T11" s="14" t="e">
+        <f t="shared" ref="T11" ca="1" si="14">O11/P11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U11" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V11" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8597,11 +8597,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12" ca="1" si="15">E12+H12</f>
-        <v>43207</v>
+        <v>43210</v>
       </c>
       <c r="G12" s="10">
         <v>96</v>
@@ -8619,9 +8619,9 @@
       <c r="K12" s="9">
         <v>0.24</v>
       </c>
-      <c r="L12" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-1.7005272775470353</v>
+      <c r="L12" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>#NAME?</v>
       </c>
       <c r="M12" s="15">
         <v>0</v>
@@ -8630,9 +8630,9 @@
         <f t="shared" ref="N12" si="16">M12/10000*I12*P12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="13">
-        <f t="shared" ref="O12" si="17">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
-        <v>1.7005272775470353</v>
+      <c r="O12" s="13" t="e">
+        <f t="shared" ref="O12" ca="1" si="17">IF(L12&lt;=0,ABS(L12)+N12,L12-N12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P12" s="11">
         <v>100</v>
@@ -8647,17 +8647,17 @@
       <c r="S12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="14">
-        <f t="shared" ref="T12" si="19">O12/P12</f>
-        <v>1.7005272775470353E-2</v>
-      </c>
-      <c r="U12" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.30017262283248414</v>
-      </c>
-      <c r="V12" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-0.12327079289164722</v>
+      <c r="T12" s="14" t="e">
+        <f t="shared" ref="T12" ca="1" si="19">O12/P12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U12" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V12" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8673,15 +8673,15 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="20">E13+H13</f>
-        <v>43192</v>
+        <v>43195</v>
       </c>
       <c r="G13" s="11">
         <f>P13</f>
-        <v>2161</v>
+        <v>2202</v>
       </c>
       <c r="H13" s="10">
         <v>31</v>
@@ -8696,9 +8696,9 @@
       <c r="K13" s="9">
         <v>0.155</v>
       </c>
-      <c r="L13" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-38.873739264090318</v>
+      <c r="L13" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>#NAME?</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <f t="shared" ref="N13" si="21">M13/10000*I13*P13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="13">
-        <f t="shared" ref="O13" si="22">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>38.873739264090318</v>
+      <c r="O13" s="13" t="e">
+        <f t="shared" ref="O13" ca="1" si="22">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>2161</v>
+        <v>2202</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>39</v>
@@ -8725,17 +8725,17 @@
       <c r="S13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="14">
-        <f t="shared" ref="T13" si="24">O13/P13</f>
-        <v>1.7988773375331012E-2</v>
-      </c>
-      <c r="U13" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-0.50814579251436953</v>
-      </c>
-      <c r="V13" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-2.5075558630639989</v>
+      <c r="T13" s="14" t="e">
+        <f t="shared" ref="T13" ca="1" si="24">O13/P13</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U13" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V13" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
@@ -9973,11 +9973,11 @@
       </c>
       <c r="F8" s="54">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="G8" s="54">
         <f ca="1">F8+I8</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="H8" s="52">
         <v>100</v>
@@ -9995,15 +9995,15 @@
       <c r="L8" s="56">
         <v>0.32</v>
       </c>
-      <c r="M8" s="51">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
-        <v>-3.6526499295562971</v>
+      <c r="M8" s="51" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="57"/>
       <c r="O8" s="51"/>
-      <c r="P8" s="51">
-        <f>M8+O8</f>
-        <v>-3.6526499295562971</v>
+      <c r="P8" s="51" t="e">
+        <f ca="1">M8+O8</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q8" s="53">
         <v>100</v>
@@ -10015,13 +10015,13 @@
         <v>20</v>
       </c>
       <c r="T8" s="58"/>
-      <c r="U8" s="51">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
-        <v>-0.51744199617651532</v>
-      </c>
-      <c r="V8" s="51">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
-        <v>-0.11406523569462124</v>
+      <c r="U8" s="51" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V8" s="51" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$R8,$Q8,$H8,$J8,$C$3,$K8,$L8,$C$4)*D8</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -10041,11 +10041,11 @@
       </c>
       <c r="F9" s="62">
         <f ca="1">F8</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="G9" s="62">
         <f ca="1">G8</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="H9" s="60">
         <v>100</v>
@@ -10065,15 +10065,15 @@
       <c r="L9" s="64">
         <v>0.3</v>
       </c>
-      <c r="M9" s="59">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
-        <v>3.4245046917201378</v>
+      <c r="M9" s="59" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="65"/>
       <c r="O9" s="59"/>
-      <c r="P9" s="59">
-        <f>M9+O9</f>
-        <v>3.4245046917201378</v>
+      <c r="P9" s="59" t="e">
+        <f ca="1">M9+O9</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q9" s="61">
         <v>100</v>
@@ -10085,13 +10085,13 @@
         <v>151</v>
       </c>
       <c r="T9" s="66"/>
-      <c r="U9" s="59">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
-        <v>0.51630126926376363</v>
-      </c>
-      <c r="V9" s="59">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
-        <v>0.11407976820886745</v>
+      <c r="U9" s="59" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V9" s="59" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$R9,$Q9,$H9,$J9,$C$3,$K9,$L9,$C$4)*D9</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -10109,11 +10109,11 @@
       </c>
       <c r="F10" s="70">
         <f ca="1">F9</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="G10" s="70">
         <f ca="1">G9</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="H10" s="68" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -10129,9 +10129,9 @@
       </c>
       <c r="K10" s="71"/>
       <c r="L10" s="68"/>
-      <c r="M10" s="67">
-        <f>M9+M8</f>
-        <v>-0.22814523783615925</v>
+      <c r="M10" s="67" t="e">
+        <f ca="1">M9+M8</f>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="68">
         <v>80</v>
@@ -10140,9 +10140,9 @@
         <f>N10/10000*J10*Q10</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="P10" s="67">
-        <f>IF(M10&lt;=0,ABS(M10)+O10,M10-O10)</f>
-        <v>0.29389866249369351</v>
+      <c r="P10" s="67" t="e">
+        <f ca="1">IF(M10&lt;=0,ABS(M10)+O10,M10-O10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q10" s="69">
         <f>Q9</f>
@@ -10152,17 +10152,17 @@
       <c r="S10" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="T10" s="72">
-        <f>P10/Q10</f>
-        <v>2.9389866249369349E-3</v>
-      </c>
-      <c r="U10" s="72">
-        <f>U9+U8</f>
-        <v>-1.1407269127516884E-3</v>
-      </c>
-      <c r="V10" s="72">
-        <f>V9+V8</f>
-        <v>1.4532514246212713E-5</v>
+      <c r="T10" s="72" t="e">
+        <f ca="1">P10/Q10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="72" t="e">
+        <f ca="1">U9+U8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="V10" s="72" t="e">
+        <f ca="1">V9+V8</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4024</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -11088,20 +11088,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19">
-        <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>3854.5749992553683</v>
+      <c r="K8" s="19" t="e">
+        <f ca="1">_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L8" s="44">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -11116,32 +11116,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24">
-        <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-80.48</v>
+      <c r="S8" s="24" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
+        <v>#NAME?</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6459178082191781</v>
-      </c>
-      <c r="V8" s="24">
-        <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>83.125917808219185</v>
-      </c>
-      <c r="W8" s="26">
-        <f>V8/H8</f>
-        <v>2.0657534246575345E-2</v>
-      </c>
-      <c r="X8" s="24">
-        <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="24">
-        <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V8" s="24" t="e">
+        <f ca="1">IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W8" s="26" t="e">
+        <f ca="1">V8/H8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X8" s="24" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y8" s="24" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -11174,20 +11174,20 @@
       <c r="J9" s="10">
         <v>110</v>
       </c>
-      <c r="K9" s="10">
-        <f>_xll.dnetDiscreteAdjustedBarrier($H9,$J9,$R9,1/365)</f>
-        <v>111.01094156493576</v>
+      <c r="K9" s="10" t="e">
+        <f ca="1">_xll.dnetDiscreteAdjustedBarrier($H9,$J9,$R9,1/365)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L9" s="45">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43341</v>
+        <v>43344</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -11202,9 +11202,9 @@
       <c r="R9" s="9">
         <v>0.3</v>
       </c>
-      <c r="S9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("price",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)*E9</f>
-        <v>-0.39957595854158601</v>
+      <c r="S9" s="13" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("price",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)*E9</f>
+        <v>#NAME?</v>
       </c>
       <c r="T9" s="15">
         <v>80</v>
@@ -11213,21 +11213,21 @@
         <f>T9/10000*P9*H9</f>
         <v>0.39452054794520547</v>
       </c>
-      <c r="V9" s="13">
-        <f>IF(S9&lt;=0,ABS(S9)+U9,S9-U9)</f>
-        <v>0.79409650648679153</v>
-      </c>
-      <c r="W9" s="14">
-        <f>V9/H9</f>
-        <v>7.9409650648679161E-3</v>
-      </c>
-      <c r="X9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("delta",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
-        <v>1.0164007825252952E-2</v>
-      </c>
-      <c r="Y9" s="13">
-        <f>_xll.dnetStandardBarrierNGreeks("vega",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
-        <v>-4.1771721369176229E-3</v>
+      <c r="V9" s="13" t="e">
+        <f ca="1">IF(S9&lt;=0,ABS(S9)+U9,S9-U9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W9" s="14" t="e">
+        <f ca="1">V9/H9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X9" s="13" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("delta",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Y9" s="13" t="e">
+        <f ca="1">_xll.dnetStandardBarrierNGreeks("vega",G9,H9,I9,K9,L9*H9,P9,$C$3,Q9,R9,$C$4)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -13014,18 +13014,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>4024</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -13037,32 +13037,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>276.92755502188129</v>
+      <c r="O8" s="24" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6459178082191781</v>
-      </c>
-      <c r="R8" s="24">
-        <f>O8+Q8</f>
-        <v>279.57347283010046</v>
-      </c>
-      <c r="S8" s="26">
-        <f>R8/H8</f>
-        <v>6.9476509152609459E-2</v>
-      </c>
-      <c r="T8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.76314671898671804</v>
-      </c>
-      <c r="U8" s="24">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.5516672312519404</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="24" t="e">
+        <f ca="1">O8+Q8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S8" s="26" t="e">
+        <f ca="1">R8/H8</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T8" s="24" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U8" s="24" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -13094,11 +13094,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -13110,9 +13110,9 @@
       <c r="N9" s="9">
         <v>0.3</v>
       </c>
-      <c r="O9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
-        <v>3.4671141943048909</v>
+      <c r="O9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P9" s="15">
         <v>80</v>
@@ -13121,21 +13121,21 @@
         <f>P9/10000*M9*H9*(-E9)</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="R9" s="13">
-        <f>O9+Q9</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="S9" s="14">
-        <f>R9/H9</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="T9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="U9" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
-        <v>0.11412144299254479</v>
+      <c r="R9" s="13" t="e">
+        <f ca="1">O9+Q9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S9" s="14" t="e">
+        <f ca="1">R9/H9</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U9" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$G9,$H9,$I9,$M9,$C$3,$C$4,$N9)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
@@ -13164,11 +13164,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43191</v>
+        <v>43194</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -13180,9 +13180,9 @@
       <c r="N10" s="9">
         <v>0.3</v>
       </c>
-      <c r="O10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
-        <v>3.4671141943048909</v>
+      <c r="O10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P10" s="15">
         <v>80</v>
@@ -13191,21 +13191,21 @@
         <f>P10/10000*M10*H10*(-E10)</f>
         <v>6.5753424657534254E-2</v>
       </c>
-      <c r="R10" s="13">
-        <f>O10+Q10</f>
-        <v>3.5328676189624253</v>
-      </c>
-      <c r="S10" s="14">
-        <f>R10/H10</f>
-        <v>3.532867618962425E-2</v>
-      </c>
-      <c r="T10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
-        <v>0.52053074724724979</v>
-      </c>
-      <c r="U10" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
-        <v>0.11412144299254479</v>
+      <c r="R10" s="13" t="e">
+        <f ca="1">O10+Q10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" s="14" t="e">
+        <f ca="1">R10/H10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10,$C$4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="13" t="e">
+        <f ca="1">_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$C$4,$N10)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
